--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H2">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I2">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J2">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>916.4940988159796</v>
+        <v>896.1150998987752</v>
       </c>
       <c r="R2">
-        <v>8248.446889343815</v>
+        <v>8065.035899088976</v>
       </c>
       <c r="S2">
-        <v>0.03642573096302876</v>
+        <v>0.03786261622505122</v>
       </c>
       <c r="T2">
-        <v>0.03642573096302875</v>
+        <v>0.03786261622505122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H3">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I3">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J3">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>118.7342414645644</v>
+        <v>131.8009853897458</v>
       </c>
       <c r="R3">
-        <v>1068.60817318108</v>
+        <v>1186.208868507712</v>
       </c>
       <c r="S3">
-        <v>0.004719050064015655</v>
+        <v>0.005568849502099933</v>
       </c>
       <c r="T3">
-        <v>0.004719050064015655</v>
+        <v>0.005568849502099934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H4">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I4">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J4">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>75.1354597986378</v>
+        <v>92.92579484862134</v>
       </c>
       <c r="R4">
-        <v>676.2191381877402</v>
+        <v>836.3321536375921</v>
       </c>
       <c r="S4">
-        <v>0.002986232042240537</v>
+        <v>0.003926296642204365</v>
       </c>
       <c r="T4">
-        <v>0.002986232042240537</v>
+        <v>0.003926296642204366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3721.989909</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H5">
-        <v>11165.969727</v>
+        <v>582.075272</v>
       </c>
       <c r="I5">
-        <v>0.9397316814693693</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J5">
-        <v>0.9397316814693691</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>19515.94764400566</v>
+        <v>21.65714529524356</v>
       </c>
       <c r="R5">
-        <v>175643.5287960509</v>
+        <v>194.914307657192</v>
       </c>
       <c r="S5">
-        <v>0.7756543760483519</v>
+        <v>0.0009150567610529123</v>
       </c>
       <c r="T5">
-        <v>0.7756543760483516</v>
+        <v>0.0009150567610529127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>11165.969727</v>
       </c>
       <c r="I6">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J6">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>2528.342782530488</v>
+        <v>17190.20641951837</v>
       </c>
       <c r="R6">
-        <v>22755.08504277439</v>
+        <v>154711.8577756654</v>
       </c>
       <c r="S6">
-        <v>0.1004880818084383</v>
+        <v>0.7263198539620161</v>
       </c>
       <c r="T6">
-        <v>0.1004880818084383</v>
+        <v>0.7263198539620163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>11165.969727</v>
       </c>
       <c r="I7">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J7">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4298626666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N7">
-        <v>1.289588</v>
+        <v>2.037896</v>
       </c>
       <c r="O7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q7">
-        <v>1599.944507589164</v>
+        <v>2528.342782530488</v>
       </c>
       <c r="R7">
-        <v>14399.50056830248</v>
+        <v>22755.08504277439</v>
       </c>
       <c r="S7">
-        <v>0.06358922361257903</v>
+        <v>0.1068274292790553</v>
       </c>
       <c r="T7">
-        <v>0.06358922361257902</v>
+        <v>0.1068274292790553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.837161</v>
+        <v>3721.989909</v>
       </c>
       <c r="H8">
-        <v>2.511483</v>
+        <v>11165.969727</v>
       </c>
       <c r="I8">
-        <v>0.0002113672345774699</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J8">
-        <v>0.0002113672345774698</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243417666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N8">
-        <v>15.730253</v>
+        <v>1.436811</v>
       </c>
       <c r="O8">
-        <v>0.8253998362974575</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P8">
-        <v>0.8253998362974574</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q8">
-        <v>4.389584777244334</v>
+        <v>1782.598681046733</v>
       </c>
       <c r="R8">
-        <v>39.506262995199</v>
+        <v>16043.3881294206</v>
       </c>
       <c r="S8">
-        <v>0.0001744624808188899</v>
+        <v>0.07531828193875875</v>
       </c>
       <c r="T8">
-        <v>0.0001744624808188899</v>
+        <v>0.07531828193875878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.837161</v>
+        <v>3721.989909</v>
       </c>
       <c r="H9">
-        <v>2.511483</v>
+        <v>11165.969727</v>
       </c>
       <c r="I9">
-        <v>0.0002113672345774699</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J9">
-        <v>0.0002113672345774698</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6792986666666666</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N9">
-        <v>2.037896</v>
+        <v>0.334861</v>
       </c>
       <c r="O9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q9">
-        <v>0.5686823510853333</v>
+        <v>415.449754305883</v>
       </c>
       <c r="R9">
-        <v>5.118141159768</v>
+        <v>3739.047788752947</v>
       </c>
       <c r="S9">
-        <v>2.260207714465193E-05</v>
+        <v>0.01755356494924851</v>
       </c>
       <c r="T9">
-        <v>2.260207714465192E-05</v>
+        <v>0.01755356494924851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.837161</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H10">
-        <v>2.511483</v>
+        <v>12.205261</v>
       </c>
       <c r="I10">
-        <v>0.0002113672345774699</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J10">
-        <v>0.0002113672345774698</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4298626666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N10">
-        <v>1.289588</v>
+        <v>13.855658</v>
       </c>
       <c r="O10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q10">
-        <v>0.3598642598893334</v>
+        <v>18.79021357963756</v>
       </c>
       <c r="R10">
-        <v>3.238778339004001</v>
+        <v>169.111922216738</v>
       </c>
       <c r="S10">
-        <v>1.430267661392799E-05</v>
+        <v>0.0007939232869002289</v>
       </c>
       <c r="T10">
-        <v>1.430267661392799E-05</v>
+        <v>0.0007939232869002289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.74316766666666</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H11">
-        <v>185.229503</v>
+        <v>12.205261</v>
       </c>
       <c r="I11">
-        <v>0.01558897584067627</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J11">
-        <v>0.01558897584067626</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>5.243417666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N11">
-        <v>15.730253</v>
+        <v>2.037896</v>
       </c>
       <c r="O11">
-        <v>0.8253998362974575</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P11">
-        <v>0.8253998362974574</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q11">
-        <v>323.7452161393621</v>
+        <v>2.763672507872888</v>
       </c>
       <c r="R11">
-        <v>2913.706945254259</v>
+        <v>24.873052570856</v>
       </c>
       <c r="S11">
-        <v>0.01286713810693921</v>
+        <v>0.0001167705705987279</v>
       </c>
       <c r="T11">
-        <v>0.01286713810693921</v>
+        <v>0.0001167705705987279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.74316766666666</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H12">
-        <v>185.229503</v>
+        <v>12.205261</v>
       </c>
       <c r="I12">
-        <v>0.01558897584067627</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J12">
-        <v>0.01558897584067626</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6792986666666666</v>
+        <v>0.478937</v>
       </c>
       <c r="N12">
-        <v>2.037896</v>
+        <v>1.436811</v>
       </c>
       <c r="O12">
-        <v>0.1069327381315001</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P12">
-        <v>0.1069327381315001</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q12">
-        <v>41.94205147174311</v>
+        <v>1.948517029185667</v>
       </c>
       <c r="R12">
-        <v>377.478463245688</v>
+        <v>17.536653262671</v>
       </c>
       <c r="S12">
-        <v>0.001666971871309316</v>
+        <v>8.23286567678276E-05</v>
       </c>
       <c r="T12">
-        <v>0.001666971871309316</v>
+        <v>8.232865676782761E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.74316766666666</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H13">
-        <v>185.229503</v>
+        <v>12.205261</v>
       </c>
       <c r="I13">
-        <v>0.01558897584067627</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J13">
-        <v>0.01558897584067626</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4298626666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N13">
-        <v>1.289588</v>
+        <v>0.334861</v>
       </c>
       <c r="O13">
-        <v>0.06766742557104236</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P13">
-        <v>0.06766742557104236</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q13">
-        <v>26.54108270164045</v>
+        <v>0.4541184337467777</v>
       </c>
       <c r="R13">
-        <v>238.869744314764</v>
+        <v>4.087065903721</v>
       </c>
       <c r="S13">
-        <v>0.001054865862427739</v>
+        <v>1.918739231111922E-05</v>
       </c>
       <c r="T13">
-        <v>0.001054865862427738</v>
+        <v>1.918739231111922E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.334605</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H14">
-        <v>4.003814999999999</v>
+        <v>286.186508</v>
       </c>
       <c r="I14">
-        <v>0.0003369623860921186</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J14">
-        <v>0.0003369623860921186</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N14">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O14">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P14">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q14">
-        <v>6.997891435021666</v>
+        <v>440.5891532291405</v>
       </c>
       <c r="R14">
-        <v>62.98102291519499</v>
+        <v>3965.302379062264</v>
       </c>
       <c r="S14">
-        <v>0.0002781286983188354</v>
+        <v>0.01861575373913419</v>
       </c>
       <c r="T14">
-        <v>0.0002781286983188353</v>
+        <v>0.01861575373913419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.334605</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H15">
-        <v>4.003814999999999</v>
+        <v>286.186508</v>
       </c>
       <c r="I15">
-        <v>0.0003369623860921186</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J15">
-        <v>0.0003369623860921186</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1370,27 +1370,27 @@
         <v>2.037896</v>
       </c>
       <c r="O15">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P15">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q15">
-        <v>0.9065953970266665</v>
+        <v>64.8020377674631</v>
       </c>
       <c r="R15">
-        <v>8.159358573239999</v>
+        <v>583.218339907168</v>
       </c>
       <c r="S15">
-        <v>3.603231059215394E-05</v>
+        <v>0.002738012881233543</v>
       </c>
       <c r="T15">
-        <v>3.603231059215393E-05</v>
+        <v>0.002738012881233544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,362 @@
         <v>23</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>95.39550266666667</v>
+      </c>
+      <c r="H16">
+        <v>286.186508</v>
+      </c>
+      <c r="I16">
+        <v>0.02373409454550267</v>
+      </c>
+      <c r="J16">
+        <v>0.02373409454550267</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.478937</v>
+      </c>
+      <c r="N16">
+        <v>1.436811</v>
+      </c>
+      <c r="O16">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P16">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q16">
+        <v>45.68843586066534</v>
+      </c>
+      <c r="R16">
+        <v>411.195922745988</v>
+      </c>
+      <c r="S16">
+        <v>0.00193042580479968</v>
+      </c>
+      <c r="T16">
+        <v>0.001930425804799681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>95.39550266666667</v>
+      </c>
+      <c r="H17">
+        <v>286.186508</v>
+      </c>
+      <c r="I17">
+        <v>0.02373409454550267</v>
+      </c>
+      <c r="J17">
+        <v>0.02373409454550267</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.334861</v>
+      </c>
+      <c r="O17">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P17">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q17">
+        <v>10.64807780615422</v>
+      </c>
+      <c r="R17">
+        <v>95.832700255388</v>
+      </c>
+      <c r="S17">
+        <v>0.0004499021203352603</v>
+      </c>
+      <c r="T17">
+        <v>0.0004499021203352604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.865589666666666</v>
+      </c>
+      <c r="H18">
+        <v>11.596769</v>
+      </c>
+      <c r="I18">
+        <v>0.0009617462884321383</v>
+      </c>
+      <c r="J18">
+        <v>0.0009617462884321383</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.855658</v>
+      </c>
+      <c r="O18">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P18">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q18">
+        <v>17.85342946322244</v>
+      </c>
+      <c r="R18">
+        <v>160.680865169002</v>
+      </c>
+      <c r="S18">
+        <v>0.0007543423251581985</v>
+      </c>
+      <c r="T18">
+        <v>0.0007543423251581985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.865589666666666</v>
+      </c>
+      <c r="H19">
+        <v>11.596769</v>
+      </c>
+      <c r="I19">
+        <v>0.0009617462884321383</v>
+      </c>
+      <c r="J19">
+        <v>0.0009617462884321383</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>1.334605</v>
-      </c>
-      <c r="H16">
-        <v>4.003814999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="J16">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4298626666666667</v>
-      </c>
-      <c r="N16">
-        <v>1.289588</v>
-      </c>
-      <c r="O16">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="P16">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="Q16">
-        <v>0.5736968642466667</v>
-      </c>
-      <c r="R16">
-        <v>5.16327177822</v>
-      </c>
-      <c r="S16">
-        <v>2.280137718112927E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.280137718112927E-05</v>
+      <c r="M19">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.037896</v>
+      </c>
+      <c r="O19">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P19">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q19">
+        <v>2.625889906447111</v>
+      </c>
+      <c r="R19">
+        <v>23.633009158024</v>
+      </c>
+      <c r="S19">
+        <v>0.0001109489861160395</v>
+      </c>
+      <c r="T19">
+        <v>0.0001109489861160395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.865589666666666</v>
+      </c>
+      <c r="H20">
+        <v>11.596769</v>
+      </c>
+      <c r="I20">
+        <v>0.0009617462884321383</v>
+      </c>
+      <c r="J20">
+        <v>0.0009617462884321383</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.478937</v>
+      </c>
+      <c r="N20">
+        <v>1.436811</v>
+      </c>
+      <c r="O20">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P20">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q20">
+        <v>1.851373918184333</v>
+      </c>
+      <c r="R20">
+        <v>16.662365263659</v>
+      </c>
+      <c r="S20">
+        <v>7.822417026696793E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.822417026696794E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.865589666666666</v>
+      </c>
+      <c r="H21">
+        <v>11.596769</v>
+      </c>
+      <c r="I21">
+        <v>0.0009617462884321383</v>
+      </c>
+      <c r="J21">
+        <v>0.0009617462884321383</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.334861</v>
+      </c>
+      <c r="O21">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P21">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q21">
+        <v>0.4314784071232222</v>
+      </c>
+      <c r="R21">
+        <v>3.883305664109</v>
+      </c>
+      <c r="S21">
+        <v>1.823080689093217E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.823080689093218E-05</v>
       </c>
     </row>
   </sheetData>
